--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.71509989688811</v>
+        <v>31.825501</v>
       </c>
       <c r="H2">
-        <v>4.71509989688811</v>
+        <v>95.47650300000001</v>
       </c>
       <c r="I2">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="J2">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.43170609809926</v>
+        <v>5.057757666666666</v>
       </c>
       <c r="N2">
-        <v>3.43170609809926</v>
+        <v>15.173273</v>
       </c>
       <c r="O2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="P2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="Q2">
-        <v>16.18083706929812</v>
+        <v>160.9656716782577</v>
       </c>
       <c r="R2">
-        <v>16.18083706929812</v>
+        <v>1448.691045104319</v>
       </c>
       <c r="S2">
-        <v>0.05293992696397885</v>
+        <v>0.1051301297331065</v>
       </c>
       <c r="T2">
-        <v>0.05293992696397885</v>
+        <v>0.1051301297331066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.71509989688811</v>
+        <v>31.825501</v>
       </c>
       <c r="H3">
-        <v>4.71509989688811</v>
+        <v>95.47650300000001</v>
       </c>
       <c r="I3">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="J3">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.1117256832495</v>
+        <v>14.247411</v>
       </c>
       <c r="N3">
-        <v>14.1117256832495</v>
+        <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="P3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="Q3">
-        <v>66.538196314003</v>
+        <v>453.430993027911</v>
       </c>
       <c r="R3">
-        <v>66.538196314003</v>
+        <v>4080.878937251199</v>
       </c>
       <c r="S3">
-        <v>0.2176974675718062</v>
+        <v>0.2961454987577609</v>
       </c>
       <c r="T3">
-        <v>0.2176974675718062</v>
+        <v>0.2961454987577609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.71509989688811</v>
+        <v>31.825501</v>
       </c>
       <c r="H4">
-        <v>4.71509989688811</v>
+        <v>95.47650300000001</v>
       </c>
       <c r="I4">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="J4">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.463335193727371</v>
+        <v>9.866548666666667</v>
       </c>
       <c r="N4">
-        <v>9.463335193727371</v>
+        <v>29.599646</v>
       </c>
       <c r="O4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="P4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="Q4">
-        <v>44.62057079616155</v>
+        <v>314.0078544575487</v>
       </c>
       <c r="R4">
-        <v>44.62057079616155</v>
+        <v>2826.070690117938</v>
       </c>
       <c r="S4">
-        <v>0.1459881061111448</v>
+        <v>0.2050852590626972</v>
       </c>
       <c r="T4">
-        <v>0.1459881061111448</v>
+        <v>0.2050852590626972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.60225799303119</v>
+        <v>4.846280666666666</v>
       </c>
       <c r="H5">
-        <v>6.60225799303119</v>
+        <v>14.538842</v>
       </c>
       <c r="I5">
-        <v>0.5833744993530702</v>
+        <v>0.09233460445363234</v>
       </c>
       <c r="J5">
-        <v>0.5833744993530702</v>
+        <v>0.09233460445363234</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.43170609809926</v>
+        <v>5.057757666666666</v>
       </c>
       <c r="N5">
-        <v>3.43170609809926</v>
+        <v>15.173273</v>
       </c>
       <c r="O5">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="P5">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="Q5">
-        <v>22.65700901590972</v>
+        <v>24.51131319665177</v>
       </c>
       <c r="R5">
-        <v>22.65700901590972</v>
+        <v>220.601818769866</v>
       </c>
       <c r="S5">
-        <v>0.07412845190811258</v>
+        <v>0.01600886393617849</v>
       </c>
       <c r="T5">
-        <v>0.07412845190811258</v>
+        <v>0.0160088639361785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.60225799303119</v>
+        <v>4.846280666666666</v>
       </c>
       <c r="H6">
-        <v>6.60225799303119</v>
+        <v>14.538842</v>
       </c>
       <c r="I6">
-        <v>0.5833744993530702</v>
+        <v>0.09233460445363234</v>
       </c>
       <c r="J6">
-        <v>0.5833744993530702</v>
+        <v>0.09233460445363234</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.1117256832495</v>
+        <v>14.247411</v>
       </c>
       <c r="N6">
-        <v>14.1117256832495</v>
+        <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="P6">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="Q6">
-        <v>93.16925368769755</v>
+        <v>69.04695247935399</v>
       </c>
       <c r="R6">
-        <v>93.16925368769755</v>
+        <v>621.4225723141859</v>
       </c>
       <c r="S6">
-        <v>0.3048280793132712</v>
+        <v>0.04509604436863677</v>
       </c>
       <c r="T6">
-        <v>0.3048280793132712</v>
+        <v>0.04509604436863677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.846280666666666</v>
+      </c>
+      <c r="H7">
+        <v>14.538842</v>
+      </c>
+      <c r="I7">
+        <v>0.09233460445363234</v>
+      </c>
+      <c r="J7">
+        <v>0.09233460445363234</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.866548666666667</v>
+      </c>
+      <c r="N7">
+        <v>29.599646</v>
+      </c>
+      <c r="O7">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="P7">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="Q7">
+        <v>47.81606404999244</v>
+      </c>
+      <c r="R7">
+        <v>430.344576449932</v>
+      </c>
+      <c r="S7">
+        <v>0.03122969614881707</v>
+      </c>
+      <c r="T7">
+        <v>0.03122969614881707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.81429</v>
+      </c>
+      <c r="H8">
+        <v>47.44287</v>
+      </c>
+      <c r="I8">
+        <v>0.301304507992803</v>
+      </c>
+      <c r="J8">
+        <v>0.3013045079928031</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.057757666666666</v>
+      </c>
+      <c r="N8">
+        <v>15.173273</v>
+      </c>
+      <c r="O8">
+        <v>0.173378811020062</v>
+      </c>
+      <c r="P8">
+        <v>0.173378811020062</v>
+      </c>
+      <c r="Q8">
+        <v>79.98484649039</v>
+      </c>
+      <c r="R8">
+        <v>719.86361841351</v>
+      </c>
+      <c r="S8">
+        <v>0.05223981735077694</v>
+      </c>
+      <c r="T8">
+        <v>0.05223981735077696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.60225799303119</v>
-      </c>
-      <c r="H7">
-        <v>6.60225799303119</v>
-      </c>
-      <c r="I7">
-        <v>0.5833744993530702</v>
-      </c>
-      <c r="J7">
-        <v>0.5833744993530702</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.463335193727371</v>
-      </c>
-      <c r="N7">
-        <v>9.463335193727371</v>
-      </c>
-      <c r="O7">
-        <v>0.3504060742428313</v>
-      </c>
-      <c r="P7">
-        <v>0.3504060742428313</v>
-      </c>
-      <c r="Q7">
-        <v>62.47938042351991</v>
-      </c>
-      <c r="R7">
-        <v>62.47938042351991</v>
-      </c>
-      <c r="S7">
-        <v>0.2044179681316865</v>
-      </c>
-      <c r="T7">
-        <v>0.2044179681316865</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.81429</v>
+      </c>
+      <c r="H9">
+        <v>47.44287</v>
+      </c>
+      <c r="I9">
+        <v>0.301304507992803</v>
+      </c>
+      <c r="J9">
+        <v>0.3013045079928031</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.247411</v>
+      </c>
+      <c r="N9">
+        <v>42.742233</v>
+      </c>
+      <c r="O9">
+        <v>0.4883980890531961</v>
+      </c>
+      <c r="P9">
+        <v>0.4883980890531961</v>
+      </c>
+      <c r="Q9">
+        <v>225.31268930319</v>
+      </c>
+      <c r="R9">
+        <v>2027.81420372871</v>
+      </c>
+      <c r="S9">
+        <v>0.1471565459267984</v>
+      </c>
+      <c r="T9">
+        <v>0.1471565459267985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.81429</v>
+      </c>
+      <c r="H10">
+        <v>47.44287</v>
+      </c>
+      <c r="I10">
+        <v>0.301304507992803</v>
+      </c>
+      <c r="J10">
+        <v>0.3013045079928031</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.866548666666667</v>
+      </c>
+      <c r="N10">
+        <v>29.599646</v>
+      </c>
+      <c r="O10">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="P10">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="Q10">
+        <v>156.03246191378</v>
+      </c>
+      <c r="R10">
+        <v>1404.29215722402</v>
+      </c>
+      <c r="S10">
+        <v>0.1019081447152276</v>
+      </c>
+      <c r="T10">
+        <v>0.1019081447152276</v>
       </c>
     </row>
   </sheetData>
